--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>310328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>申万菱信新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310328</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信新动力混合</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.14</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>003884</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>汇安沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>002161</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>银华万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003884</t>
+          <t>003885</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安沪深300指数增强A</t>
+          <t>汇安沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.46</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003885</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安沪深300指数增强C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002161</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华万物互联灵活配置混合</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>180003</t>
+          <t>310328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华-道琼斯88指数 A</t>
+          <t>申万菱信新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006857</t>
+          <t>180003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
+          <t>银华-道琼斯88指数 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006858</t>
+          <t>002269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
+          <t>银华大数据灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310328</t>
+          <t>001280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信新动力混合</t>
+          <t>银华聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007056</t>
+          <t>005498</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华积极精选混合</t>
+          <t>银华积极成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001280</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合A</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.71</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002326</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合C</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.71</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>007056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>银华积极精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>002326</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>银华聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002269</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华大数据灵活配置定期开放混合</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005498</t>
+          <t>006857</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华积极成长混合</t>
+          <t>蜂巢卓睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.66</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>006858</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
+          <t>蜂巢卓睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.56</v>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,983 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2783,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2794,17 +2795,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2814,14 +2835,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.92</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2830,14 +2873,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2846,14 +2911,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2862,14 +2949,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.56</v>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2878,13 +2987,1379 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4242,7 +4243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,17 +4254,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4273,14 +4294,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.56</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4289,14 +4332,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.92</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4305,14 +4370,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4321,14 +4408,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.22</v>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4337,14 +4446,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.56</v>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4353,13 +4484,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.85</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15.56</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>7.92</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.56</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.22</v>
       </c>
     </row>
@@ -600,6 +617,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3609,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3817,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3949,7 +4362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4537,7 +4950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
+++ b/数据整理/stocks/A股/深证主板/002960-青鸟消防.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.85</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>15.56</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>7.92</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2.56</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.22</v>
       </c>
     </row>
@@ -616,7 +633,1069 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国融甄混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016589</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国融甄混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1012,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4022,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4230,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4362,7 +5441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4948,364 +6027,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>310328</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6457</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000598</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛生态环境主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1350</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003884</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0936</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002161</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0821</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003885</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007775</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>